--- a/players.xlsx
+++ b/players.xlsx
@@ -6,12 +6,21 @@
   </bookViews>
   <sheets>
     <sheet name="Periya Poolu" sheetId="1" r:id="rId4"/>
+    <sheet name="AR" sheetId="2" r:id="rId5"/>
+    <sheet name="WK" sheetId="3" r:id="rId6"/>
+    <sheet name="Chinna Poolu Nalla Batters" sheetId="4" r:id="rId7"/>
+    <sheet name="Chinna Poolu Nalla Bowler Local" sheetId="5" r:id="rId8"/>
+    <sheet name="Chinna Poolu Nalla Bowler Impor" sheetId="6" r:id="rId9"/>
+    <sheet name="Star Kutti Kunjans" sheetId="7" r:id="rId10"/>
+    <sheet name="Kutti Kunjans Part 1" sheetId="8" r:id="rId11"/>
+    <sheet name="Kutti Kunjans Part 2" sheetId="9" r:id="rId12"/>
+    <sheet name="Ondra Anaa" sheetId="10" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>Table 1</t>
   </si>
@@ -155,6 +164,681 @@
   </si>
   <si>
     <t>Travis Head</t>
+  </si>
+  <si>
+    <t>Shivam Dube</t>
+  </si>
+  <si>
+    <t>Matthew Short</t>
+  </si>
+  <si>
+    <t>Nitish Rana</t>
+  </si>
+  <si>
+    <t>Glenn Phillips</t>
+  </si>
+  <si>
+    <t>Jayant Yadav</t>
+  </si>
+  <si>
+    <t>Washington Sundar</t>
+  </si>
+  <si>
+    <t>Jason Holder</t>
+  </si>
+  <si>
+    <t>Ramandeep Singh</t>
+  </si>
+  <si>
+    <t>Rovman Powell</t>
+  </si>
+  <si>
+    <t>Sunil Narine</t>
+  </si>
+  <si>
+    <t>Aiden Markram</t>
+  </si>
+  <si>
+    <t>Shahbaz Ahmed</t>
+  </si>
+  <si>
+    <t>Wanindu Hasaranga</t>
+  </si>
+  <si>
+    <t>Corbin Bosch</t>
+  </si>
+  <si>
+    <t>Mitchell Santner</t>
+  </si>
+  <si>
+    <t>Shardul Thakur</t>
+  </si>
+  <si>
+    <t>Will Jacks</t>
+  </si>
+  <si>
+    <t>Azmatullah Omarzai</t>
+  </si>
+  <si>
+    <t>Marco Jansen</t>
+  </si>
+  <si>
+    <t>Cooper Connolly</t>
+  </si>
+  <si>
+    <t>Donovan Ferreira</t>
+  </si>
+  <si>
+    <t>Riyan Parag</t>
+  </si>
+  <si>
+    <t>Sam Curran</t>
+  </si>
+  <si>
+    <t>Jacob Bethell</t>
+  </si>
+  <si>
+    <t>Krunal Pandya</t>
+  </si>
+  <si>
+    <t>Romario Shepherd</t>
+  </si>
+  <si>
+    <t>Kamindu Mendis</t>
+  </si>
+  <si>
+    <t>Nitish Kumar Reddy</t>
+  </si>
+  <si>
+    <t>Sanju Samson</t>
+  </si>
+  <si>
+    <t>Tom Banton</t>
+  </si>
+  <si>
+    <t>Finn Allen</t>
+  </si>
+  <si>
+    <t>Tim Seifert</t>
+  </si>
+  <si>
+    <t>Josh Inglis</t>
+  </si>
+  <si>
+    <t>Ryan Rickelton</t>
+  </si>
+  <si>
+    <t>Quinton de Kock</t>
+  </si>
+  <si>
+    <t>Dhruv Jurel</t>
+  </si>
+  <si>
+    <t>Jitesh Sharma</t>
+  </si>
+  <si>
+    <t>Phil Salt</t>
+  </si>
+  <si>
+    <t>Jordan Cox</t>
+  </si>
+  <si>
+    <t>Ishan Kishan</t>
+  </si>
+  <si>
+    <t>Sarfaraz Khan</t>
+  </si>
+  <si>
+    <t>Sai Sudharsan</t>
+  </si>
+  <si>
+    <t>Rinku Singh</t>
+  </si>
+  <si>
+    <t>Tilak Verma</t>
+  </si>
+  <si>
+    <t>Devdutt Padikkal</t>
+  </si>
+  <si>
+    <t>Rajat Patidar</t>
+  </si>
+  <si>
+    <t>Dewald Brevis</t>
+  </si>
+  <si>
+    <t>Tristan Stubbs</t>
+  </si>
+  <si>
+    <t>Pathum Nissanka</t>
+  </si>
+  <si>
+    <t>David Miller</t>
+  </si>
+  <si>
+    <t>Matthew Breetzke</t>
+  </si>
+  <si>
+    <t>Shimron Hetmyer</t>
+  </si>
+  <si>
+    <t>Mitchell Marsh</t>
+  </si>
+  <si>
+    <t>Sherfane Rutherford</t>
+  </si>
+  <si>
+    <t>Tim David</t>
+  </si>
+  <si>
+    <t>Syed Khaleel Ahmed</t>
+  </si>
+  <si>
+    <t>Rahul Chahar</t>
+  </si>
+  <si>
+    <t>Kuldeep Yadav</t>
+  </si>
+  <si>
+    <t>Mukesh Kumar</t>
+  </si>
+  <si>
+    <t>T Natarajan</t>
+  </si>
+  <si>
+    <t>Ishant Sharma</t>
+  </si>
+  <si>
+    <t>Mohammad Siraj</t>
+  </si>
+  <si>
+    <t>Prasidh Krishna</t>
+  </si>
+  <si>
+    <t>R Sai Kishore</t>
+  </si>
+  <si>
+    <t>Harshit Rana</t>
+  </si>
+  <si>
+    <t>Umran Malik</t>
+  </si>
+  <si>
+    <t>Akash Deep</t>
+  </si>
+  <si>
+    <t>Avesh Khan</t>
+  </si>
+  <si>
+    <t>Mayank Yadav</t>
+  </si>
+  <si>
+    <t>Mohammed Shami</t>
+  </si>
+  <si>
+    <t>Deepak Chahar</t>
+  </si>
+  <si>
+    <t>Mayank Markande</t>
+  </si>
+  <si>
+    <t>Yuzvendra Chahal</t>
+  </si>
+  <si>
+    <t>Sandeep Sharma</t>
+  </si>
+  <si>
+    <t>Tushar Deshpande</t>
+  </si>
+  <si>
+    <t>Ravi Bishnoi</t>
+  </si>
+  <si>
+    <t>Bhuvneshwar Kumar</t>
+  </si>
+  <si>
+    <t>Harshal Patel</t>
+  </si>
+  <si>
+    <t>Shivam Mavi</t>
+  </si>
+  <si>
+    <t>Nathan Ellis</t>
+  </si>
+  <si>
+    <t>Noor Ahmad</t>
+  </si>
+  <si>
+    <t>Akeal Hosein</t>
+  </si>
+  <si>
+    <t>Dushmantha Chameera</t>
+  </si>
+  <si>
+    <t>Mitchell Starc</t>
+  </si>
+  <si>
+    <t>Lungi Ngidi</t>
+  </si>
+  <si>
+    <t>Kagiso Rabada</t>
+  </si>
+  <si>
+    <t>Matheesha Pathirana</t>
+  </si>
+  <si>
+    <t>Anrich Nortje</t>
+  </si>
+  <si>
+    <t>Allah Ghazanfar</t>
+  </si>
+  <si>
+    <t>Trent Boult</t>
+  </si>
+  <si>
+    <t>Lockie Ferguson</t>
+  </si>
+  <si>
+    <t>Xavier Bartlett</t>
+  </si>
+  <si>
+    <t>Ben Dwarshuis</t>
+  </si>
+  <si>
+    <t>Jofra Archer</t>
+  </si>
+  <si>
+    <t>Kwena Maphaka</t>
+  </si>
+  <si>
+    <t>Nandre Burger</t>
+  </si>
+  <si>
+    <t>Nuwan Thushara</t>
+  </si>
+  <si>
+    <t>Eshan Malinga</t>
+  </si>
+  <si>
+    <t>Pat Cummins</t>
+  </si>
+  <si>
+    <t>Anshul Kamboj</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shreyas Gopal</t>
+  </si>
+  <si>
+    <t>Ayush Mhatre</t>
+  </si>
+  <si>
+    <t>Urvil Patel</t>
+  </si>
+  <si>
+    <t>Abhishek Porel</t>
+  </si>
+  <si>
+    <t>Ashutosh Sharma</t>
+  </si>
+  <si>
+    <t>Vipraj Nigam</t>
+  </si>
+  <si>
+    <t>Auqib Dar</t>
+  </si>
+  <si>
+    <t>Rahul Tewatia</t>
+  </si>
+  <si>
+    <t>Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>Angkrish Raghuvanshi</t>
+  </si>
+  <si>
+    <t>Vaibhav Arora</t>
+  </si>
+  <si>
+    <t>Ayush Badoni</t>
+  </si>
+  <si>
+    <t>Digvesh Rathi</t>
+  </si>
+  <si>
+    <t>Ashwani Kumar</t>
+  </si>
+  <si>
+    <t>Naman Dhir</t>
+  </si>
+  <si>
+    <t>Harpreet Brar</t>
+  </si>
+  <si>
+    <t>Musheer Khan</t>
+  </si>
+  <si>
+    <t>Nehal Wadhera</t>
+  </si>
+  <si>
+    <t>Prabhsimran Singh</t>
+  </si>
+  <si>
+    <t>Priyansh Arya</t>
+  </si>
+  <si>
+    <t>Shashank Singh</t>
+  </si>
+  <si>
+    <t>Vaibhav Suryavanshi</t>
+  </si>
+  <si>
+    <t>Vignesh Puthur</t>
+  </si>
+  <si>
+    <t>Suyash Sharma</t>
+  </si>
+  <si>
+    <t>Yash Dayal</t>
+  </si>
+  <si>
+    <t>Harsh Dubey</t>
+  </si>
+  <si>
+    <t>Smaran Ravichandaran</t>
+  </si>
+  <si>
+    <t>Gurjapneet Singh</t>
+  </si>
+  <si>
+    <t>Mukesh Choudhary</t>
+  </si>
+  <si>
+    <t>Ramakrishna Ghosh</t>
+  </si>
+  <si>
+    <t>Kartik Sharma</t>
+  </si>
+  <si>
+    <t>Prashant Veer</t>
+  </si>
+  <si>
+    <t>Aman Khan</t>
+  </si>
+  <si>
+    <t>Ajay Mandal</t>
+  </si>
+  <si>
+    <t>Madhav Tiwari</t>
+  </si>
+  <si>
+    <t>Sameer Rizvi</t>
+  </si>
+  <si>
+    <t>Tripurana Vijay</t>
+  </si>
+  <si>
+    <t>Sahil Parakh</t>
+  </si>
+  <si>
+    <t>Anuj Rawat</t>
+  </si>
+  <si>
+    <t>Gurnoor Singh Brar</t>
+  </si>
+  <si>
+    <t>Kumar Kushagra</t>
+  </si>
+  <si>
+    <t>Manav Suthar</t>
+  </si>
+  <si>
+    <t>Mohd Arshad Khan</t>
+  </si>
+  <si>
+    <t>Nishant Sindhu</t>
+  </si>
+  <si>
+    <t>Ashok Sharma</t>
+  </si>
+  <si>
+    <t>Prithviraj Yarra</t>
+  </si>
+  <si>
+    <t>Anukul Roy</t>
+  </si>
+  <si>
+    <t>Tejasvi Singh</t>
+  </si>
+  <si>
+    <t>Daksh Kamra</t>
+  </si>
+  <si>
+    <t>Sarthak Ranjan</t>
+  </si>
+  <si>
+    <t>Prashant Solanki</t>
+  </si>
+  <si>
+    <t>Kartik Tyagi</t>
+  </si>
+  <si>
+    <t>Abdul Samad</t>
+  </si>
+  <si>
+    <t>Akash Singh</t>
+  </si>
+  <si>
+    <t>Arjun Tendulkar</t>
+  </si>
+  <si>
+    <t>Arshin Kulkarni</t>
+  </si>
+  <si>
+    <t>Himmat Singh</t>
+  </si>
+  <si>
+    <t>Manimaran Siddharth</t>
+  </si>
+  <si>
+    <t>Mohsin Khan</t>
+  </si>
+  <si>
+    <t>Prince Yadav</t>
+  </si>
+  <si>
+    <t>Mukul Choudhary</t>
+  </si>
+  <si>
+    <t>Akshat Raghuwanshi</t>
+  </si>
+  <si>
+    <t>Naman Tiwari</t>
+  </si>
+  <si>
+    <t>Raghu Sharma</t>
+  </si>
+  <si>
+    <t>Raj Angad Bawa</t>
+  </si>
+  <si>
+    <t>Robin Minz</t>
+  </si>
+  <si>
+    <t>Mayank Rawat</t>
+  </si>
+  <si>
+    <t>Atharva Ankolekar</t>
+  </si>
+  <si>
+    <t>Mohammad Izhar</t>
+  </si>
+  <si>
+    <t>Danish Malewar</t>
+  </si>
+  <si>
+    <t>Harnoor Pannu</t>
+  </si>
+  <si>
+    <t>Pyla Avinash</t>
+  </si>
+  <si>
+    <t>Suryansh Shedge</t>
+  </si>
+  <si>
+    <t>Vishnu Vinod</t>
+  </si>
+  <si>
+    <t>Vyshak Vijaykumar</t>
+  </si>
+  <si>
+    <t>Yash Thakur</t>
+  </si>
+  <si>
+    <t>Vishal Nishad</t>
+  </si>
+  <si>
+    <t>Pravin Dubey</t>
+  </si>
+  <si>
+    <t>Shubham Dubey</t>
+  </si>
+  <si>
+    <t>Yudhvir Charak</t>
+  </si>
+  <si>
+    <t>Ravi Singh</t>
+  </si>
+  <si>
+    <t>Sushant Mishra</t>
+  </si>
+  <si>
+    <t>Kuldeep Sen</t>
+  </si>
+  <si>
+    <t>Brijesh Sharma</t>
+  </si>
+  <si>
+    <t>Aman Rao Perala</t>
+  </si>
+  <si>
+    <t>Yash Raj Punja</t>
+  </si>
+  <si>
+    <t>Abhinandan Singh</t>
+  </si>
+  <si>
+    <t>Rasikh Dar</t>
+  </si>
+  <si>
+    <t>Swapnil Singh</t>
+  </si>
+  <si>
+    <t>Mangesh Yadav</t>
+  </si>
+  <si>
+    <t>Kanishk Chouhan</t>
+  </si>
+  <si>
+    <t>Vihaan Malhotra</t>
+  </si>
+  <si>
+    <t>Vicky Ostwal</t>
+  </si>
+  <si>
+    <t>Satvik Deswal</t>
+  </si>
+  <si>
+    <t>Aniket Verma</t>
+  </si>
+  <si>
+    <t>Zeeshan Ansari</t>
+  </si>
+  <si>
+    <t>Salil Arora</t>
+  </si>
+  <si>
+    <t>Krains Fuletra</t>
+  </si>
+  <si>
+    <t>Praful Hinge</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Onkar Tarmale</t>
+  </si>
+  <si>
+    <t>Sakib Hussain</t>
+  </si>
+  <si>
+    <t>Shivang Kumar</t>
+  </si>
+  <si>
+    <t>Jamie Overton</t>
+  </si>
+  <si>
+    <t>Matt Henry</t>
+  </si>
+  <si>
+    <t>Zak Foulkes</t>
+  </si>
+  <si>
+    <t>Karun Nair</t>
+  </si>
+  <si>
+    <t>Kyle Jamieson</t>
+  </si>
+  <si>
+    <t>Ben Duckett</t>
+  </si>
+  <si>
+    <t>Prithvi Shaw</t>
+  </si>
+  <si>
+    <t>Luke Wood</t>
+  </si>
+  <si>
+    <t>Ajinkya Rahane</t>
+  </si>
+  <si>
+    <t>Manish Pandey</t>
+  </si>
+  <si>
+    <t>Rachin Ravindra</t>
+  </si>
+  <si>
+    <t>Rahul Tripathi</t>
+  </si>
+  <si>
+    <t>Marcus Stoinis</t>
+  </si>
+  <si>
+    <t>Mitch Owen</t>
+  </si>
+  <si>
+    <t>Lhuan-Dre Pretorious</t>
+  </si>
+  <si>
+    <t>Adam Milne</t>
+  </si>
+  <si>
+    <t>Venkatesh Iyer</t>
+  </si>
+  <si>
+    <t>Brydon Carse</t>
+  </si>
+  <si>
+    <t>Jaydev Unadkat</t>
+  </si>
+  <si>
+    <t>Liam Livingstone</t>
+  </si>
+  <si>
+    <t>Jack Edwards</t>
   </si>
 </sst>
 </file>
@@ -187,7 +871,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -369,7 +1059,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -412,6 +1102,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,6 +1173,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffdddddd"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1686,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -1786,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -1866,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -1966,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -1986,7 +2725,5313 @@
         <v>11</v>
       </c>
       <c r="F26" s="13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>260</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>262</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>269</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>270</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>272</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="32.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.2031" style="16" customWidth="1"/>
+    <col min="2" max="6" width="16.3516" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="17">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="17">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="32.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" ht="32.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" ht="32.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" ht="32.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" ht="32.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>197</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>198</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>200</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" ht="32.05" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="10">
+        <v>209</v>
+      </c>
+      <c r="B36" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" ht="32.05" customHeight="1">
+      <c r="A37" t="s" s="10">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="10">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="10">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" ht="20.05" customHeight="1">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" ht="20.05" customHeight="1">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" ht="20.05" customHeight="1">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" ht="20.05" customHeight="1">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" ht="20.05" customHeight="1">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" ht="20.05" customHeight="1">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" ht="20.05" customHeight="1">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" ht="20.05" customHeight="1">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" ht="20.05" customHeight="1">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" ht="20.05" customHeight="1">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" ht="20.05" customHeight="1">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" ht="20.05" customHeight="1">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" ht="20.05" customHeight="1">
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" ht="20.05" customHeight="1">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" ht="20.05" customHeight="1">
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" ht="20.05" customHeight="1">
+      <c r="A75" s="26"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" ht="20.05" customHeight="1">
+      <c r="A76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" ht="20.05" customHeight="1">
+      <c r="A77" s="26"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" ht="20.05" customHeight="1">
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>216</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>228</v>
+      </c>
+      <c r="B17" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>236</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="B32" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>244</v>
+      </c>
+      <c r="B33" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>245</v>
+      </c>
+      <c r="B34" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="10">
+        <v>247</v>
+      </c>
+      <c r="B36" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="10">
+        <v>248</v>
+      </c>
+      <c r="B37" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="10">
+        <v>249</v>
+      </c>
+      <c r="B38" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="10">
+        <v>250</v>
+      </c>
+      <c r="B39" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="10">
+        <v>251</v>
+      </c>
+      <c r="B40" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/players.xlsx
+++ b/players.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>Table 1</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Pat Cummins</t>
+  </si>
+  <si>
+    <t>Jacob Duffy</t>
   </si>
   <si>
     <t>Anshul Kamboj</t>
@@ -1059,7 +1062,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1112,15 +1115,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2751,8 +2745,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="29" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2787,7 +2781,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -2807,7 +2801,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -2827,7 +2821,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -2847,7 +2841,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>15</v>
@@ -2867,7 +2861,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>15</v>
@@ -2887,7 +2881,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>15</v>
@@ -2907,7 +2901,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>15</v>
@@ -2927,7 +2921,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>19</v>
@@ -2947,7 +2941,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>25</v>
@@ -2967,7 +2961,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>25</v>
@@ -2987,7 +2981,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>25</v>
@@ -3007,7 +3001,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>25</v>
@@ -3027,7 +3021,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>36</v>
@@ -3047,7 +3041,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>36</v>
@@ -3067,7 +3061,7 @@
     </row>
     <row r="17" ht="32.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>39</v>
@@ -3087,7 +3081,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>39</v>
@@ -3107,7 +3101,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>42</v>
@@ -3127,7 +3121,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>45</v>
@@ -3147,7 +3141,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>45</v>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>45</v>
@@ -3187,7 +3181,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>45</v>
@@ -4142,7 +4136,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.2031" style="16" customWidth="1"/>
+    <col min="1" max="1" width="18.1719" style="16" customWidth="1"/>
     <col min="2" max="6" width="16.3516" style="16" customWidth="1"/>
     <col min="7" max="16384" width="16.3516" style="16" customWidth="1"/>
   </cols>
@@ -4421,19 +4415,19 @@
       <c r="A15" t="s" s="17">
         <v>100</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B15" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="C15" t="s" s="19">
+      <c r="C15" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D15" t="s" s="19">
+      <c r="D15" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="E15" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="E15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4441,19 +4435,19 @@
       <c r="A16" t="s" s="17">
         <v>101</v>
       </c>
-      <c r="B16" t="s" s="18">
+      <c r="B16" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="19">
+      <c r="C16" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D16" t="s" s="19">
+      <c r="D16" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="E16" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="E16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4483,7 +4477,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4508,8 +4502,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="22" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -5039,14 +5033,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -5477,6 +5471,26 @@
       </c>
       <c r="F22" s="13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5502,8 +5516,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="24" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -5538,7 +5552,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -5550,7 +5564,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="9">
         <v>0.5</v>
@@ -5558,7 +5572,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -5570,7 +5584,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" s="13">
         <v>0.5</v>
@@ -5578,7 +5592,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -5590,7 +5604,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" s="13">
         <v>0.5</v>
@@ -5598,7 +5612,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>8</v>
@@ -5610,7 +5624,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -5618,7 +5632,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>15</v>
@@ -5630,7 +5644,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="13">
         <v>0.5</v>
@@ -5638,7 +5652,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>15</v>
@@ -5650,7 +5664,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="13">
         <v>0.5</v>
@@ -5658,7 +5672,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>15</v>
@@ -5670,7 +5684,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
@@ -5678,7 +5692,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>15</v>
@@ -5690,7 +5704,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" s="13">
         <v>0.5</v>
@@ -5698,7 +5712,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>19</v>
@@ -5710,7 +5724,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -5718,7 +5732,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>19</v>
@@ -5730,7 +5744,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -5738,7 +5752,7 @@
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>25</v>
@@ -5750,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="13">
         <v>0.5</v>
@@ -5758,7 +5772,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>25</v>
@@ -5770,7 +5784,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="13">
         <v>0.5</v>
@@ -5778,7 +5792,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>28</v>
@@ -5790,7 +5804,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
@@ -5798,7 +5812,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>28</v>
@@ -5810,7 +5824,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="13">
         <v>0.5</v>
@@ -5818,7 +5832,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>31</v>
@@ -5830,7 +5844,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="13">
         <v>0.5</v>
@@ -5838,7 +5852,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>31</v>
@@ -5850,7 +5864,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="13">
         <v>0.5</v>
@@ -5858,7 +5872,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>36</v>
@@ -5870,7 +5884,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" s="13">
         <v>0.5</v>
@@ -5878,7 +5892,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>36</v>
@@ -5890,7 +5904,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="13">
         <v>0.5</v>
@@ -5898,7 +5912,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>36</v>
@@ -5910,7 +5924,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" s="13">
         <v>0.5</v>
@@ -5918,7 +5932,7 @@
     </row>
     <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>36</v>
@@ -5930,7 +5944,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
@@ -5938,7 +5952,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>36</v>
@@ -5950,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="13">
         <v>0.5</v>
@@ -5958,7 +5972,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>36</v>
@@ -5970,7 +5984,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
@@ -5978,7 +5992,7 @@
     </row>
     <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>39</v>
@@ -5990,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
@@ -5998,7 +6012,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>39</v>
@@ -6010,7 +6024,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="13">
         <v>0.5</v>
@@ -6018,7 +6032,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>42</v>
@@ -6030,7 +6044,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F27" s="13">
         <v>0.5</v>
@@ -6038,7 +6052,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>42</v>
@@ -6050,7 +6064,7 @@
         <v>22</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" s="13">
         <v>0.5</v>
@@ -6058,7 +6072,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>45</v>
@@ -6070,7 +6084,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="13">
         <v>0.5</v>
@@ -6078,7 +6092,7 @@
     </row>
     <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>45</v>
@@ -6090,7 +6104,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F30" s="13">
         <v>0.5</v>
@@ -6119,8 +6133,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -6155,7 +6169,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -6167,7 +6181,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="9">
         <v>0.5</v>
@@ -6175,7 +6189,7 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -6187,7 +6201,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" s="13">
         <v>0.5</v>
@@ -6195,7 +6209,7 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -6207,7 +6221,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" s="13">
         <v>0.5</v>
@@ -6215,7 +6229,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>8</v>
@@ -6227,7 +6241,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -6235,7 +6249,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>8</v>
@@ -6247,7 +6261,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="13">
         <v>0.5</v>
@@ -6255,7 +6269,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>8</v>
@@ -6267,7 +6281,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="13">
         <v>0.5</v>
@@ -6275,7 +6289,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>15</v>
@@ -6287,7 +6301,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
@@ -6295,7 +6309,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>15</v>
@@ -6307,7 +6321,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" s="13">
         <v>0.5</v>
@@ -6315,7 +6329,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>15</v>
@@ -6327,7 +6341,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="13">
         <v>0.5</v>
@@ -6335,7 +6349,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>15</v>
@@ -6347,7 +6361,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="13">
         <v>0.5</v>
@@ -6355,7 +6369,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>15</v>
@@ -6367,7 +6381,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="13">
         <v>0.5</v>
@@ -6375,7 +6389,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>19</v>
@@ -6387,7 +6401,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="13">
         <v>0.5</v>
@@ -6395,7 +6409,7 @@
     </row>
     <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>19</v>
@@ -6407,7 +6421,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
@@ -6415,7 +6429,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>19</v>
@@ -6427,7 +6441,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="13">
         <v>0.5</v>
@@ -6435,7 +6449,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>19</v>
@@ -6447,7 +6461,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="13">
         <v>0.5</v>
@@ -6455,7 +6469,7 @@
     </row>
     <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>19</v>
@@ -6467,7 +6481,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="13">
         <v>0.5</v>
@@ -6475,7 +6489,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>19</v>
@@ -6487,7 +6501,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" s="13">
         <v>0.5</v>
@@ -6495,7 +6509,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>19</v>
@@ -6507,7 +6521,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="13">
         <v>0.5</v>
@@ -6515,7 +6529,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>19</v>
@@ -6527,7 +6541,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" s="13">
         <v>0.5</v>
@@ -6535,7 +6549,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>25</v>
@@ -6547,7 +6561,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
@@ -6555,7 +6569,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>25</v>
@@ -6567,7 +6581,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="13">
         <v>0.5</v>
@@ -6575,7 +6589,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>25</v>
@@ -6587,7 +6601,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="13">
         <v>0.5</v>
@@ -6595,7 +6609,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>25</v>
@@ -6607,7 +6621,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="13">
         <v>0.5</v>
@@ -6615,7 +6629,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>25</v>
@@ -6627,7 +6641,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="13">
         <v>0.5</v>
@@ -6635,7 +6649,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>25</v>
@@ -6647,7 +6661,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F27" s="13">
         <v>0.5</v>
@@ -6655,7 +6669,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>28</v>
@@ -6667,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" s="13">
         <v>0.5</v>
@@ -6675,7 +6689,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>28</v>
@@ -6687,7 +6701,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="13">
         <v>0.5</v>
@@ -6695,7 +6709,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>28</v>
@@ -6707,7 +6721,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F30" s="13">
         <v>0.5</v>
@@ -6715,7 +6729,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s" s="11">
         <v>28</v>
@@ -6727,7 +6741,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F31" s="13">
         <v>0.5</v>
@@ -6735,7 +6749,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s" s="11">
         <v>28</v>
@@ -6747,7 +6761,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F32" s="13">
         <v>0.5</v>
@@ -6755,7 +6769,7 @@
     </row>
     <row r="33" ht="32.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s" s="11">
         <v>28</v>
@@ -6767,7 +6781,7 @@
         <v>22</v>
       </c>
       <c r="E33" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33" s="13">
         <v>0.5</v>
@@ -6775,7 +6789,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s" s="11">
         <v>28</v>
@@ -6787,7 +6801,7 @@
         <v>22</v>
       </c>
       <c r="E34" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="13">
         <v>0.5</v>
@@ -6795,7 +6809,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s" s="11">
         <v>28</v>
@@ -6807,7 +6821,7 @@
         <v>22</v>
       </c>
       <c r="E35" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" s="13">
         <v>0.5</v>
@@ -6815,7 +6829,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s" s="11">
         <v>28</v>
@@ -6827,7 +6841,7 @@
         <v>22</v>
       </c>
       <c r="E36" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F36" s="13">
         <v>0.5</v>
@@ -6835,7 +6849,7 @@
     </row>
     <row r="37" ht="32.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s" s="11">
         <v>28</v>
@@ -6847,7 +6861,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F37" s="13">
         <v>0.5</v>
@@ -6855,7 +6869,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s" s="11">
         <v>28</v>
@@ -6867,7 +6881,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F38" s="13">
         <v>0.5</v>
@@ -6875,7 +6889,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s" s="11">
         <v>31</v>
@@ -6887,7 +6901,7 @@
         <v>22</v>
       </c>
       <c r="E39" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="13">
         <v>0.5</v>
@@ -6895,7 +6909,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s" s="11">
         <v>31</v>
@@ -6907,315 +6921,315 @@
         <v>16</v>
       </c>
       <c r="E40" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" s="26"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" s="26"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" s="26"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7240,8 +7254,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="28" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -7276,7 +7290,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>31</v>
@@ -7288,7 +7302,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="9">
         <v>0.5</v>
@@ -7296,7 +7310,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>31</v>
@@ -7308,7 +7322,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" s="13">
         <v>0.5</v>
@@ -7316,7 +7330,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>31</v>
@@ -7328,7 +7342,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" s="13">
         <v>0.5</v>
@@ -7336,7 +7350,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>31</v>
@@ -7348,7 +7362,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -7356,7 +7370,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>31</v>
@@ -7368,7 +7382,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="13">
         <v>0.5</v>
@@ -7376,7 +7390,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>36</v>
@@ -7388,7 +7402,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="13">
         <v>0.5</v>
@@ -7396,7 +7410,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>36</v>
@@ -7408,7 +7422,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
@@ -7416,7 +7430,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>36</v>
@@ -7428,7 +7442,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" s="13">
         <v>0.5</v>
@@ -7436,7 +7450,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>36</v>
@@ -7448,7 +7462,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="13">
         <v>0.5</v>
@@ -7456,7 +7470,7 @@
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>36</v>
@@ -7468,7 +7482,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="13">
         <v>0.5</v>
@@ -7476,7 +7490,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>36</v>
@@ -7488,7 +7502,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="13">
         <v>0.5</v>
@@ -7496,7 +7510,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>36</v>
@@ -7508,7 +7522,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="13">
         <v>0.5</v>
@@ -7516,7 +7530,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>36</v>
@@ -7528,7 +7542,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
@@ -7536,7 +7550,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>39</v>
@@ -7548,7 +7562,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="13">
         <v>0.5</v>
@@ -7556,7 +7570,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>39</v>
@@ -7568,7 +7582,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="13">
         <v>0.5</v>
@@ -7576,7 +7590,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>39</v>
@@ -7588,7 +7602,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="13">
         <v>0.5</v>
@@ -7596,7 +7610,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>39</v>
@@ -7608,7 +7622,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" s="13">
         <v>0.5</v>
@@ -7616,7 +7630,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>39</v>
@@ -7628,7 +7642,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="13">
         <v>0.5</v>
@@ -7636,7 +7650,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>39</v>
@@ -7648,7 +7662,7 @@
         <v>16</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" s="13">
         <v>0.5</v>
@@ -7656,7 +7670,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>39</v>
@@ -7668,7 +7682,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
@@ -7676,7 +7690,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>39</v>
@@ -7688,7 +7702,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="13">
         <v>0.5</v>
@@ -7696,7 +7710,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>42</v>
@@ -7708,7 +7722,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="13">
         <v>0.5</v>
@@ -7716,7 +7730,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>42</v>
@@ -7728,7 +7742,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="13">
         <v>0.5</v>
@@ -7736,7 +7750,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>42</v>
@@ -7748,7 +7762,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="13">
         <v>0.5</v>
@@ -7756,7 +7770,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>42</v>
@@ -7768,7 +7782,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F27" s="13">
         <v>0.5</v>
@@ -7776,7 +7790,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>42</v>
@@ -7788,7 +7802,7 @@
         <v>16</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" s="13">
         <v>0.5</v>
@@ -7796,7 +7810,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>42</v>
@@ -7808,7 +7822,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="13">
         <v>0.5</v>
@@ -7816,7 +7830,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>42</v>
@@ -7828,7 +7842,7 @@
         <v>22</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F30" s="13">
         <v>0.5</v>
@@ -7836,7 +7850,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="11">
         <v>42</v>
@@ -7848,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="E31" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F31" s="13">
         <v>0.5</v>
@@ -7856,7 +7870,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="11">
         <v>45</v>
@@ -7868,7 +7882,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F32" s="13">
         <v>0.5</v>
@@ -7876,7 +7890,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="11">
         <v>45</v>
@@ -7888,7 +7902,7 @@
         <v>22</v>
       </c>
       <c r="E33" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33" s="13">
         <v>0.5</v>
@@ -7896,7 +7910,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="11">
         <v>45</v>
@@ -7908,7 +7922,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="13">
         <v>0.5</v>
@@ -7916,7 +7930,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="11">
         <v>45</v>
@@ -7928,7 +7942,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" s="13">
         <v>0.5</v>
@@ -7936,7 +7950,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="11">
         <v>45</v>
@@ -7948,7 +7962,7 @@
         <v>16</v>
       </c>
       <c r="E36" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F36" s="13">
         <v>0.5</v>
@@ -7956,7 +7970,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="11">
         <v>45</v>
@@ -7968,7 +7982,7 @@
         <v>22</v>
       </c>
       <c r="E37" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F37" s="13">
         <v>0.5</v>
@@ -7976,7 +7990,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="11">
         <v>45</v>
@@ -7988,7 +8002,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F38" s="13">
         <v>0.5</v>
@@ -7996,7 +8010,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s" s="11">
         <v>45</v>
@@ -8008,7 +8022,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="13">
         <v>0.5</v>
@@ -8016,7 +8030,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B40" t="s" s="11">
         <v>45</v>
@@ -8028,7 +8042,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" s="13">
         <v>0.5</v>

--- a/players.xlsx
+++ b/players.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>Table 1</t>
   </si>
@@ -166,6 +166,15 @@
     <t>Travis Head</t>
   </si>
   <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Shivam Dube</t>
   </si>
   <si>
@@ -467,9 +476,6 @@
   </si>
   <si>
     <t>Anshul Kamboj</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Shreyas Gopal</t>
@@ -2202,7 +2208,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2720,6 +2726,26 @@
       </c>
       <c r="F26" s="13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="F27" s="13">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2807,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -2801,7 +2827,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -2821,7 +2847,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -2841,7 +2867,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>15</v>
@@ -2861,7 +2887,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>15</v>
@@ -2881,7 +2907,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>15</v>
@@ -2901,7 +2927,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>15</v>
@@ -2921,7 +2947,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>19</v>
@@ -2941,7 +2967,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>25</v>
@@ -2961,7 +2987,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>25</v>
@@ -2981,7 +3007,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>25</v>
@@ -3001,7 +3027,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>25</v>
@@ -3021,7 +3047,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>36</v>
@@ -3041,7 +3067,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>36</v>
@@ -3061,7 +3087,7 @@
     </row>
     <row r="17" ht="32.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>39</v>
@@ -3081,7 +3107,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>39</v>
@@ -3101,7 +3127,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>42</v>
@@ -3121,7 +3147,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>45</v>
@@ -3141,7 +3167,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>45</v>
@@ -3161,7 +3187,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>45</v>
@@ -3181,7 +3207,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>45</v>
@@ -3258,7 +3284,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -3278,7 +3304,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -3298,7 +3324,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>15</v>
@@ -3318,7 +3344,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>19</v>
@@ -3338,7 +3364,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>19</v>
@@ -3358,7 +3384,7 @@
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>19</v>
@@ -3378,7 +3404,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>19</v>
@@ -3398,7 +3424,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>25</v>
@@ -3418,7 +3444,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>25</v>
@@ -3438,7 +3464,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>25</v>
@@ -3458,7 +3484,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>28</v>
@@ -3478,7 +3504,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>28</v>
@@ -3498,7 +3524,7 @@
     </row>
     <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>28</v>
@@ -3518,7 +3544,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>31</v>
@@ -3538,7 +3564,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>31</v>
@@ -3558,7 +3584,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>31</v>
@@ -3578,7 +3604,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>31</v>
@@ -3598,7 +3624,7 @@
     </row>
     <row r="20" ht="32.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>36</v>
@@ -3618,7 +3644,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>36</v>
@@ -3638,7 +3664,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>36</v>
@@ -3658,7 +3684,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>39</v>
@@ -3678,7 +3704,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>39</v>
@@ -3698,7 +3724,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>39</v>
@@ -3718,7 +3744,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>42</v>
@@ -3738,7 +3764,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>42</v>
@@ -3758,7 +3784,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>42</v>
@@ -3778,7 +3804,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>45</v>
@@ -3798,7 +3824,7 @@
     </row>
     <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>45</v>
@@ -3875,7 +3901,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -3895,7 +3921,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>19</v>
@@ -3915,7 +3941,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>25</v>
@@ -3935,7 +3961,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>25</v>
@@ -3955,7 +3981,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>28</v>
@@ -3975,7 +4001,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>31</v>
@@ -3995,7 +4021,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>31</v>
@@ -4015,7 +4041,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>39</v>
@@ -4035,7 +4061,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>42</v>
@@ -4055,7 +4081,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>42</v>
@@ -4075,7 +4101,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>42</v>
@@ -4095,7 +4121,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>45</v>
@@ -4173,7 +4199,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -4193,7 +4219,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>19</v>
@@ -4213,7 +4239,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>25</v>
@@ -4233,7 +4259,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>31</v>
@@ -4253,7 +4279,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>42</v>
@@ -4273,7 +4299,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>42</v>
@@ -4293,7 +4319,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>8</v>
@@ -4313,7 +4339,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>15</v>
@@ -4333,7 +4359,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>15</v>
@@ -4353,7 +4379,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>15</v>
@@ -4373,7 +4399,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>28</v>
@@ -4393,7 +4419,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>39</v>
@@ -4413,7 +4439,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="17">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>28</v>
@@ -4433,7 +4459,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="17">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>31</v>
@@ -4453,7 +4479,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="17">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>42</v>
@@ -4538,7 +4564,7 @@
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -4558,7 +4584,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -4578,7 +4604,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>15</v>
@@ -4598,7 +4624,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>15</v>
@@ -4618,7 +4644,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>15</v>
@@ -4638,7 +4664,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>19</v>
@@ -4658,7 +4684,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>19</v>
@@ -4678,7 +4704,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>19</v>
@@ -4698,7 +4724,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>19</v>
@@ -4718,7 +4744,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>25</v>
@@ -4738,7 +4764,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>25</v>
@@ -4758,7 +4784,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>25</v>
@@ -4778,7 +4804,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>28</v>
@@ -4798,7 +4824,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>28</v>
@@ -4818,7 +4844,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>28</v>
@@ -4838,7 +4864,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>31</v>
@@ -4858,7 +4884,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>31</v>
@@ -4878,7 +4904,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>36</v>
@@ -4898,7 +4924,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>39</v>
@@ -4918,7 +4944,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>39</v>
@@ -4938,7 +4964,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>39</v>
@@ -4958,7 +4984,7 @@
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>42</v>
@@ -4978,7 +5004,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>45</v>
@@ -4998,7 +5024,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>45</v>
@@ -5075,7 +5101,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -5095,7 +5121,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -5115,7 +5141,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -5135,7 +5161,7 @@
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>15</v>
@@ -5155,7 +5181,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>15</v>
@@ -5175,7 +5201,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>15</v>
@@ -5195,7 +5221,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>19</v>
@@ -5215,7 +5241,7 @@
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>25</v>
@@ -5235,7 +5261,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>28</v>
@@ -5255,7 +5281,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>31</v>
@@ -5275,7 +5301,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>31</v>
@@ -5295,7 +5321,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>36</v>
@@ -5315,7 +5341,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>36</v>
@@ -5335,7 +5361,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>36</v>
@@ -5355,7 +5381,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>39</v>
@@ -5375,7 +5401,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>39</v>
@@ -5395,7 +5421,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>39</v>
@@ -5415,7 +5441,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>42</v>
@@ -5435,7 +5461,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>45</v>
@@ -5455,7 +5481,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>45</v>
@@ -5475,7 +5501,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>42</v>
@@ -5552,7 +5578,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -5564,7 +5590,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9">
         <v>0.5</v>
@@ -5572,7 +5598,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -5584,7 +5610,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F4" s="13">
         <v>0.5</v>
@@ -5592,7 +5618,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -5604,7 +5630,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13">
         <v>0.5</v>
@@ -5612,7 +5638,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>8</v>
@@ -5624,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -5632,7 +5658,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>15</v>
@@ -5644,7 +5670,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F7" s="13">
         <v>0.5</v>
@@ -5652,7 +5678,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>15</v>
@@ -5664,7 +5690,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13">
         <v>0.5</v>
@@ -5672,7 +5698,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>15</v>
@@ -5684,7 +5710,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
@@ -5692,7 +5718,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>15</v>
@@ -5704,7 +5730,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>0.5</v>
@@ -5712,7 +5738,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>19</v>
@@ -5724,7 +5750,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -5732,7 +5758,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>19</v>
@@ -5744,7 +5770,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -5752,7 +5778,7 @@
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>25</v>
@@ -5764,7 +5790,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13">
         <v>0.5</v>
@@ -5772,7 +5798,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>25</v>
@@ -5784,7 +5810,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F14" s="13">
         <v>0.5</v>
@@ -5792,7 +5818,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>28</v>
@@ -5804,7 +5830,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
@@ -5812,7 +5838,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>28</v>
@@ -5824,7 +5850,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F16" s="13">
         <v>0.5</v>
@@ -5832,7 +5858,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>31</v>
@@ -5844,7 +5870,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F17" s="13">
         <v>0.5</v>
@@ -5852,7 +5878,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>31</v>
@@ -5864,7 +5890,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13">
         <v>0.5</v>
@@ -5872,7 +5898,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>36</v>
@@ -5884,7 +5910,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F19" s="13">
         <v>0.5</v>
@@ -5892,7 +5918,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>36</v>
@@ -5904,7 +5930,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13">
         <v>0.5</v>
@@ -5912,7 +5938,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>36</v>
@@ -5924,7 +5950,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13">
         <v>0.5</v>
@@ -5932,7 +5958,7 @@
     </row>
     <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>36</v>
@@ -5944,7 +5970,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
@@ -5952,7 +5978,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>36</v>
@@ -5964,7 +5990,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F23" s="13">
         <v>0.5</v>
@@ -5972,7 +5998,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>36</v>
@@ -5984,7 +6010,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
@@ -5992,7 +6018,7 @@
     </row>
     <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>39</v>
@@ -6004,7 +6030,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
@@ -6012,7 +6038,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>39</v>
@@ -6024,7 +6050,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F26" s="13">
         <v>0.5</v>
@@ -6032,7 +6058,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>42</v>
@@ -6044,7 +6070,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F27" s="13">
         <v>0.5</v>
@@ -6052,7 +6078,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>42</v>
@@ -6064,7 +6090,7 @@
         <v>22</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F28" s="13">
         <v>0.5</v>
@@ -6072,7 +6098,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>45</v>
@@ -6084,7 +6110,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F29" s="13">
         <v>0.5</v>
@@ -6092,7 +6118,7 @@
     </row>
     <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>45</v>
@@ -6104,7 +6130,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F30" s="13">
         <v>0.5</v>
@@ -6169,7 +6195,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>8</v>
@@ -6181,7 +6207,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9">
         <v>0.5</v>
@@ -6189,7 +6215,7 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>8</v>
@@ -6201,7 +6227,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F4" s="13">
         <v>0.5</v>
@@ -6209,7 +6235,7 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
@@ -6221,7 +6247,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13">
         <v>0.5</v>
@@ -6229,7 +6255,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>8</v>
@@ -6241,7 +6267,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -6249,7 +6275,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>8</v>
@@ -6261,7 +6287,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F7" s="13">
         <v>0.5</v>
@@ -6269,7 +6295,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>8</v>
@@ -6281,7 +6307,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13">
         <v>0.5</v>
@@ -6289,7 +6315,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>15</v>
@@ -6301,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
@@ -6309,7 +6335,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>15</v>
@@ -6321,7 +6347,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>0.5</v>
@@ -6329,7 +6355,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>15</v>
@@ -6341,7 +6367,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13">
         <v>0.5</v>
@@ -6349,7 +6375,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>15</v>
@@ -6361,7 +6387,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13">
         <v>0.5</v>
@@ -6369,7 +6395,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>15</v>
@@ -6381,7 +6407,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13">
         <v>0.5</v>
@@ -6389,7 +6415,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>19</v>
@@ -6401,7 +6427,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F14" s="13">
         <v>0.5</v>
@@ -6409,7 +6435,7 @@
     </row>
     <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>19</v>
@@ -6421,7 +6447,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
@@ -6429,7 +6455,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>19</v>
@@ -6441,7 +6467,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F16" s="13">
         <v>0.5</v>
@@ -6449,7 +6475,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>19</v>
@@ -6461,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F17" s="13">
         <v>0.5</v>
@@ -6469,7 +6495,7 @@
     </row>
     <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>19</v>
@@ -6481,7 +6507,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13">
         <v>0.5</v>
@@ -6489,7 +6515,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>19</v>
@@ -6501,7 +6527,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F19" s="13">
         <v>0.5</v>
@@ -6509,7 +6535,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>19</v>
@@ -6521,7 +6547,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13">
         <v>0.5</v>
@@ -6529,7 +6555,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>19</v>
@@ -6541,7 +6567,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13">
         <v>0.5</v>
@@ -6549,7 +6575,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>25</v>
@@ -6561,7 +6587,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
@@ -6569,7 +6595,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>25</v>
@@ -6581,7 +6607,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F23" s="13">
         <v>0.5</v>
@@ -6589,7 +6615,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>25</v>
@@ -6601,7 +6627,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F24" s="13">
         <v>0.5</v>
@@ -6609,7 +6635,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>25</v>
@@ -6621,7 +6647,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13">
         <v>0.5</v>
@@ -6629,7 +6655,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>25</v>
@@ -6641,7 +6667,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F26" s="13">
         <v>0.5</v>
@@ -6649,7 +6675,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>25</v>
@@ -6661,7 +6687,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F27" s="13">
         <v>0.5</v>
@@ -6669,7 +6695,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>28</v>
@@ -6681,7 +6707,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F28" s="13">
         <v>0.5</v>
@@ -6689,7 +6715,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>28</v>
@@ -6701,7 +6727,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F29" s="13">
         <v>0.5</v>
@@ -6709,7 +6735,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>28</v>
@@ -6721,7 +6747,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F30" s="13">
         <v>0.5</v>
@@ -6729,7 +6755,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s" s="11">
         <v>28</v>
@@ -6741,7 +6767,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F31" s="13">
         <v>0.5</v>
@@ -6749,7 +6775,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="11">
         <v>28</v>
@@ -6761,7 +6787,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F32" s="13">
         <v>0.5</v>
@@ -6769,7 +6795,7 @@
     </row>
     <row r="33" ht="32.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s" s="11">
         <v>28</v>
@@ -6781,7 +6807,7 @@
         <v>22</v>
       </c>
       <c r="E33" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F33" s="13">
         <v>0.5</v>
@@ -6789,7 +6815,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s" s="11">
         <v>28</v>
@@ -6801,7 +6827,7 @@
         <v>22</v>
       </c>
       <c r="E34" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F34" s="13">
         <v>0.5</v>
@@ -6809,7 +6835,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s" s="11">
         <v>28</v>
@@ -6821,7 +6847,7 @@
         <v>22</v>
       </c>
       <c r="E35" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F35" s="13">
         <v>0.5</v>
@@ -6829,7 +6855,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s" s="11">
         <v>28</v>
@@ -6841,7 +6867,7 @@
         <v>22</v>
       </c>
       <c r="E36" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F36" s="13">
         <v>0.5</v>
@@ -6849,7 +6875,7 @@
     </row>
     <row r="37" ht="32.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s" s="11">
         <v>28</v>
@@ -6861,7 +6887,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F37" s="13">
         <v>0.5</v>
@@ -6869,7 +6895,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s" s="11">
         <v>28</v>
@@ -6881,7 +6907,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F38" s="13">
         <v>0.5</v>
@@ -6889,7 +6915,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s" s="11">
         <v>31</v>
@@ -6901,7 +6927,7 @@
         <v>22</v>
       </c>
       <c r="E39" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F39" s="13">
         <v>0.5</v>
@@ -6909,7 +6935,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s" s="11">
         <v>31</v>
@@ -6921,7 +6947,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F40" s="13">
         <v>0.5</v>
@@ -7290,7 +7316,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s" s="7">
         <v>31</v>
@@ -7302,7 +7328,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9">
         <v>0.5</v>
@@ -7310,7 +7336,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>31</v>
@@ -7322,7 +7348,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F4" s="13">
         <v>0.5</v>
@@ -7330,7 +7356,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s" s="11">
         <v>31</v>
@@ -7342,7 +7368,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13">
         <v>0.5</v>
@@ -7350,7 +7376,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s" s="11">
         <v>31</v>
@@ -7362,7 +7388,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13">
         <v>0.5</v>
@@ -7370,7 +7396,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s" s="11">
         <v>31</v>
@@ -7382,7 +7408,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F7" s="13">
         <v>0.5</v>
@@ -7390,7 +7416,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s" s="11">
         <v>36</v>
@@ -7402,7 +7428,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13">
         <v>0.5</v>
@@ -7410,7 +7436,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>36</v>
@@ -7422,7 +7448,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
@@ -7430,7 +7456,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="11">
         <v>36</v>
@@ -7442,7 +7468,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>0.5</v>
@@ -7450,7 +7476,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s" s="11">
         <v>36</v>
@@ -7462,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13">
         <v>0.5</v>
@@ -7470,7 +7496,7 @@
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="11">
         <v>36</v>
@@ -7482,7 +7508,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13">
         <v>0.5</v>
@@ -7490,7 +7516,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s" s="11">
         <v>36</v>
@@ -7502,7 +7528,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13">
         <v>0.5</v>
@@ -7510,7 +7536,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="11">
         <v>36</v>
@@ -7522,7 +7548,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F14" s="13">
         <v>0.5</v>
@@ -7530,7 +7556,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s" s="11">
         <v>36</v>
@@ -7542,7 +7568,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
@@ -7550,7 +7576,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>39</v>
@@ -7562,7 +7588,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F16" s="13">
         <v>0.5</v>
@@ -7570,7 +7596,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s" s="11">
         <v>39</v>
@@ -7582,7 +7608,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F17" s="13">
         <v>0.5</v>
@@ -7590,7 +7616,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s" s="11">
         <v>39</v>
@@ -7602,7 +7628,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13">
         <v>0.5</v>
@@ -7610,7 +7636,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s" s="11">
         <v>39</v>
@@ -7622,7 +7648,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F19" s="13">
         <v>0.5</v>
@@ -7630,7 +7656,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="11">
         <v>39</v>
@@ -7642,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13">
         <v>0.5</v>
@@ -7650,7 +7676,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="11">
         <v>39</v>
@@ -7662,7 +7688,7 @@
         <v>16</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13">
         <v>0.5</v>
@@ -7670,7 +7696,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="11">
         <v>39</v>
@@ -7682,7 +7708,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
@@ -7690,7 +7716,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>39</v>
@@ -7702,7 +7728,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F23" s="13">
         <v>0.5</v>
@@ -7710,7 +7736,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="11">
         <v>42</v>
@@ -7722,7 +7748,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F24" s="13">
         <v>0.5</v>
@@ -7730,7 +7756,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="11">
         <v>42</v>
@@ -7742,7 +7768,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F25" s="13">
         <v>0.5</v>
@@ -7750,7 +7776,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="11">
         <v>42</v>
@@ -7762,7 +7788,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F26" s="13">
         <v>0.5</v>
@@ -7770,7 +7796,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="11">
         <v>42</v>
@@ -7782,7 +7808,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F27" s="13">
         <v>0.5</v>
@@ -7790,7 +7816,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="11">
         <v>42</v>
@@ -7802,7 +7828,7 @@
         <v>16</v>
       </c>
       <c r="E28" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F28" s="13">
         <v>0.5</v>
@@ -7810,7 +7836,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="11">
         <v>42</v>
@@ -7822,7 +7848,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F29" s="13">
         <v>0.5</v>
@@ -7830,7 +7856,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="11">
         <v>42</v>
@@ -7842,7 +7868,7 @@
         <v>22</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F30" s="13">
         <v>0.5</v>
@@ -7850,7 +7876,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="11">
         <v>42</v>
@@ -7862,7 +7888,7 @@
         <v>16</v>
       </c>
       <c r="E31" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F31" s="13">
         <v>0.5</v>
@@ -7870,7 +7896,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="11">
         <v>45</v>
@@ -7882,7 +7908,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F32" s="13">
         <v>0.5</v>
@@ -7890,7 +7916,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="11">
         <v>45</v>
@@ -7902,7 +7928,7 @@
         <v>22</v>
       </c>
       <c r="E33" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F33" s="13">
         <v>0.5</v>
@@ -7910,7 +7936,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="11">
         <v>45</v>
@@ -7922,7 +7948,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F34" s="13">
         <v>0.5</v>
@@ -7930,7 +7956,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s" s="11">
         <v>45</v>
@@ -7942,7 +7968,7 @@
         <v>16</v>
       </c>
       <c r="E35" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F35" s="13">
         <v>0.5</v>
@@ -7950,7 +7976,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="11">
         <v>45</v>
@@ -7962,7 +7988,7 @@
         <v>16</v>
       </c>
       <c r="E36" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F36" s="13">
         <v>0.5</v>
@@ -7970,7 +7996,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="11">
         <v>45</v>
@@ -7982,7 +8008,7 @@
         <v>22</v>
       </c>
       <c r="E37" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F37" s="13">
         <v>0.5</v>
@@ -7990,7 +8016,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="11">
         <v>45</v>
@@ -8002,7 +8028,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F38" s="13">
         <v>0.5</v>
@@ -8010,7 +8036,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s" s="11">
         <v>45</v>
@@ -8022,7 +8048,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F39" s="13">
         <v>0.5</v>
@@ -8030,7 +8056,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="11">
         <v>45</v>
@@ -8042,7 +8068,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s" s="12">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="F40" s="13">
         <v>0.5</v>
